--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -451,211 +451,281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>005505</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>81.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>005506</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>81.41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.86</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004390</t>
+          <t>010328</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合A</t>
+          <t>博时荣华灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004391</t>
+          <t>009937</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合C</t>
+          <t>东方欣益一年持有期偏债混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.33</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>东方龙混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>009217</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009217</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009218</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010328</t>
+          <t>009470</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合A</t>
+          <t>东方欣利混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010329</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合C</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009937</t>
+          <t>700003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合A</t>
+          <t>平安策略先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009938</t>
+          <t>004390</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合C</t>
+          <t>平安转型创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>009471</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>东方欣利混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001730</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴银大健康灵活配置混合</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>700003</t>
+          <t>009938</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平安策略先锋混合</t>
+          <t>东方欣益一年持有期偏债混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>78.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>001730</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>兴银大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>004391</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>平安转型创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009470</t>
+          <t>010329</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方欣利混合A</t>
+          <t>博时荣华灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009471</t>
+          <t>009218</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方欣利混合C</t>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2018,4 +2019,970 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2985,4 +2986,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2994,7 +2995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3005,17 +3006,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3025,14 +3046,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.66</v>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3041,14 +3084,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3057,14 +3122,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.18</v>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3073,13 +3160,3417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5690</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6469,7 +6470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6480,17 +6481,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6500,14 +6521,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.48</v>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6516,14 +6559,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.66</v>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6532,14 +6597,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6548,14 +6635,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.18</v>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6851</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6564,13 +6673,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6489</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8046,7 +8047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8057,17 +8058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8077,14 +8098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.65</v>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8093,14 +8136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.48</v>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8109,14 +8174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.66</v>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8125,14 +8212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8141,14 +8250,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.18</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8157,13 +8288,1437 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>8.83</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>7.65</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>15.48</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>2.66</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -600,6 +617,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6443</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3799</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2137,7 +3616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3713,7 +5192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7187,7 +8666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8153,7 +9632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8741,7 +10220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9443,7 +10922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
+++ b/数据整理/stocks/A股/深证主板/000423-东阿阿胶.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>7.38</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>8.83</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>7.65</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>15.48</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>2.66</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,314 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +918,2602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016524</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016525</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>017167</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>017461</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2078,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3616,7 +6513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5192,7 +8089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8666,7 +11563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9632,7 +12529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10220,7 +13117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10920,288 +13817,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2045</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2029</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1142</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>